--- a/revenue-streamlit/tenancy_list_AMP_26SEP2022.xlsx
+++ b/revenue-streamlit/tenancy_list_AMP_26SEP2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mawan/Development/office/revenue-streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db03e8e420626a2/Office/AMG/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AF23D7-DD12-B145-9592-127D44DC0C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{11AF23D7-DD12-B145-9592-127D44DC0C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D39E1FEC-93F8-6948-9C4E-C70242EDC347}"/>
   <bookViews>
-    <workbookView xWindow="-6040" yWindow="-26560" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{9B5F1805-BD13-644E-928C-E5F5A508D070}"/>
+    <workbookView xWindow="-3080" yWindow="-39980" windowWidth="48200" windowHeight="32920" activeTab="1" xr2:uid="{9B5F1805-BD13-644E-928C-E5F5A508D070}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="2" r:id="rId1"/>
@@ -653,7 +653,374 @@
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="61">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -866,523 +1233,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1397,32 +1247,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01BF6763-74CA-0E4A-9495-7E5102C252CB}" name="Table1" displayName="Table1" ref="A1:N74" totalsRowCount="1" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01BF6763-74CA-0E4A-9495-7E5102C252CB}" name="Table1" displayName="Table1" ref="A1:N74" totalsRowCount="1" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A1:N73" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}">
     <filterColumn colId="4">
       <filters>
         <filter val="Office"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Koperasi Dinatera (Gudang)"/>
+        <filter val="Koperasi Dinatera (Office)"/>
+        <filter val="Medco Foundation"/>
+        <filter val="PT Alas Tiara Lestari"/>
+        <filter val="PT Antareja Resources"/>
+        <filter val="PT Api Metra Palma (LAB KOPI)"/>
+        <filter val="PT Bank Woori Saudara Indonesia"/>
+        <filter val="PT Ciptatani Kumai Sejahtera"/>
+        <filter val="PT Elga Yasa Media"/>
+        <filter val="PT Elga Yasa Media (server)"/>
+        <filter val="PT Expan Petrogas Intranusa"/>
+        <filter val="PT Fabrik Komponen Industri Energi"/>
+        <filter val="PT Maleo Luwuk Hotel"/>
+        <filter val="PT Martel Indonesia"/>
+        <filter val="PT Medco Intidinamika"/>
+        <filter val="PT Meta Inti Duta"/>
+        <filter val="PT Multi Fabrindo Gemilang  (Ruang File)"/>
+        <filter val="PT Multi Fabrindo Gemilang (office)"/>
+        <filter val="PT. Grahamas"/>
+        <filter val="PT. Maxpower Indonesia"/>
+        <filter val="Ruang Pak AP"/>
+        <filter val="Salam Ganesha"/>
+        <filter val="Yayasan Kemitraan Strategis Tuberkulosis Indonesia"/>
+        <filter val="Yayasan Muslim Peduli Nusantara"/>
+        <filter val="Yayasan Pendidikan Avicena Prestasi"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N70">
-    <sortCondition ref="D1:D70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N65">
+    <sortCondition ref="H1:H73"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{46F49E32-4634-CC41-83A0-95BC6CE41CAD}" name="No" totalsRowLabel="Total" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{C24C0BF5-8992-D04A-A470-669D8843403F}" name="Location" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{657350F3-00F5-4643-AFB6-70DCA4BDB98D}" name="Floor" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{EC8C6CB4-65C2-C24B-8837-13DEF82F9EE0}" name="Zone" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{257336DB-89F8-0544-913C-BB2DCFD74F4F}" name="Product_Type" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{2AE3EBBB-4976-5A44-B1C8-177E548F4A6A}" name="Group" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{04A2C990-049F-814D-BF0E-2E8CE848FE6B}" name="Tenant" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{0E8C4FC9-C57A-9F40-B150-0C26ECB824F3}" name="Area" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{F81F37B7-CC21-6E48-869F-C971EFF2F492}" name="Chg_Type" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{A8FB008D-2083-274B-B305-7DF0116895E2}" name="Start" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{0AEECAF8-F208-274A-A7DF-615FA7056398}" name="End" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{C8A6A94E-5C97-914D-953A-8A71B396C694}" name="Rental_Rate" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Comma [0]"/>
-    <tableColumn id="12" xr3:uid="{9A3D8400-770B-5446-B298-ED9F5DD8613E}" name="SC_Rate" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Comma [0]"/>
-    <tableColumn id="5" xr3:uid="{6C4ADC6E-7A75-944E-BA41-AA00EC427C3C}" name="Notes_1" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{46F49E32-4634-CC41-83A0-95BC6CE41CAD}" name="No" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{C24C0BF5-8992-D04A-A470-669D8843403F}" name="Location" dataDxfId="25" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{657350F3-00F5-4643-AFB6-70DCA4BDB98D}" name="Floor" dataDxfId="24" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{EC8C6CB4-65C2-C24B-8837-13DEF82F9EE0}" name="Zone" dataDxfId="23" totalsRowDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{257336DB-89F8-0544-913C-BB2DCFD74F4F}" name="Product_Type" dataDxfId="22" totalsRowDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{2AE3EBBB-4976-5A44-B1C8-177E548F4A6A}" name="Group" dataDxfId="21" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{04A2C990-049F-814D-BF0E-2E8CE848FE6B}" name="Tenant" dataDxfId="20" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{0E8C4FC9-C57A-9F40-B150-0C26ECB824F3}" name="Area" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{F81F37B7-CC21-6E48-869F-C971EFF2F492}" name="Chg_Type" dataDxfId="18" totalsRowDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{A8FB008D-2083-274B-B305-7DF0116895E2}" name="Start" dataDxfId="17" totalsRowDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{0AEECAF8-F208-274A-A7DF-615FA7056398}" name="End" dataDxfId="16" totalsRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{C8A6A94E-5C97-914D-953A-8A71B396C694}" name="Rental_Rate" dataDxfId="15" totalsRowDxfId="1" dataCellStyle="Comma [0]"/>
+    <tableColumn id="12" xr3:uid="{9A3D8400-770B-5446-B298-ED9F5DD8613E}" name="SC_Rate" dataDxfId="14" totalsRowDxfId="0" dataCellStyle="Comma [0]"/>
+    <tableColumn id="5" xr3:uid="{6C4ADC6E-7A75-944E-BA41-AA00EC427C3C}" name="Notes_1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1802,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C740B811-089B-4648-8C91-86FE56062FDE}">
   <dimension ref="A1:N199"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1869,7 +1748,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>72</v>
@@ -1878,71 +1757,71 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="11">
-        <v>78.930000000000007</v>
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="16">
+        <v>11.28</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>71</v>
+        <v>15</v>
+      </c>
+      <c r="J2" s="13">
+        <v>44197</v>
       </c>
       <c r="K2" s="14">
-        <v>49309</v>
-      </c>
-      <c r="L2" s="15">
-        <v>0</v>
-      </c>
-      <c r="M2" s="15">
-        <v>0</v>
+        <v>44926</v>
+      </c>
+      <c r="L2" s="17">
+        <v>70000</v>
+      </c>
+      <c r="M2" s="17">
+        <v>70000</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="11">
-        <v>82.48</v>
+      <c r="G3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="16">
+        <v>13.39</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>71</v>
+      <c r="J3" s="13">
+        <v>44599</v>
       </c>
       <c r="K3" s="14">
-        <v>49309</v>
-      </c>
-      <c r="L3" s="15">
-        <v>0</v>
-      </c>
-      <c r="M3" s="15">
-        <v>0</v>
+        <v>44963</v>
+      </c>
+      <c r="L3" s="17">
+        <v>60000</v>
+      </c>
+      <c r="M3" s="17">
+        <v>80000</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -2064,68 +1943,65 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="16">
-        <v>39.82</v>
+        <v>54</v>
+      </c>
+      <c r="H7" s="26">
+        <v>15.12</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="13">
-        <v>44562</v>
+        <v>43834</v>
       </c>
       <c r="K7" s="14">
-        <v>44834</v>
+        <v>45016</v>
       </c>
       <c r="L7" s="17">
+        <v>110000</v>
+      </c>
+      <c r="M7" s="17">
         <v>80000</v>
-      </c>
-      <c r="M7" s="17">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="16">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>15</v>
@@ -2134,13 +2010,13 @@
         <v>43831</v>
       </c>
       <c r="K8" s="14">
-        <v>45657</v>
+        <v>44926</v>
       </c>
       <c r="L8" s="17">
-        <v>110000</v>
+        <v>70000</v>
       </c>
       <c r="M8" s="17">
-        <v>75000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -2207,7 +2083,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>72</v>
@@ -2216,20 +2092,20 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H11" s="16">
-        <v>75</v>
+        <v>16.86</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J11" s="13">
         <v>44562</v>
@@ -2238,91 +2114,87 @@
         <v>44926</v>
       </c>
       <c r="L11" s="17">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="M11" s="17">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="16">
-        <v>34</v>
+        <v>55</v>
+      </c>
+      <c r="H12" s="26">
+        <v>18.399999999999999</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="13">
-        <v>43831</v>
-      </c>
-      <c r="K12" s="14">
-        <v>45657</v>
-      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="17">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="M12" s="17">
-        <v>75000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H13" s="16">
-        <v>42</v>
+        <v>26.32</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="23">
         <v>44562</v>
       </c>
       <c r="K13" s="14">
-        <v>44926</v>
+        <v>45657</v>
       </c>
       <c r="L13" s="17">
         <v>20000</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="24">
         <v>80000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2353,161 +2225,164 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H15" s="16">
-        <v>182.89</v>
+        <v>34</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="13">
-        <v>44562</v>
+        <v>43831</v>
       </c>
       <c r="K15" s="14">
         <v>45657</v>
       </c>
       <c r="L15" s="17">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="M15" s="17">
-        <v>40000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="16">
-        <v>96.83</v>
+        <v>59</v>
+      </c>
+      <c r="H16" s="27">
+        <v>34</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="13">
-        <v>43983</v>
+      <c r="J16" s="23">
+        <v>44044</v>
       </c>
       <c r="K16" s="14">
         <v>45138</v>
       </c>
-      <c r="L16" s="17">
-        <v>50000</v>
-      </c>
-      <c r="M16" s="17">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L16" s="24">
+        <v>105000</v>
+      </c>
+      <c r="M16" s="24">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>46</v>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="18" t="s">
-        <v>68</v>
+      <c r="G17" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="H17" s="16">
-        <v>43.03</v>
+        <v>35.380875202593195</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J17" s="19">
-        <v>44409</v>
+        <v>44562</v>
       </c>
       <c r="K17" s="14">
-        <v>45138</v>
+        <v>44926</v>
       </c>
       <c r="L17" s="17">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="M17" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H18" s="16">
-        <v>45.42</v>
+        <v>39.82</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="13">
-        <v>43983</v>
+        <v>44562</v>
       </c>
       <c r="K18" s="14">
-        <v>45138</v>
+        <v>44834</v>
       </c>
       <c r="L18" s="17">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="M18" s="17">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2536,7 +2411,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2565,7 +2440,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2594,7 +2469,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2623,7 +2498,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2652,7 +2527,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2681,46 +2556,46 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>81</v>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H25" s="16">
-        <v>13.39</v>
+        <v>42</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J25" s="13">
-        <v>44599</v>
+        <v>44562</v>
       </c>
       <c r="K25" s="14">
-        <v>44963</v>
+        <v>44926</v>
       </c>
       <c r="L25" s="17">
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="M25" s="17">
         <v>80000</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2749,7 +2624,7 @@
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2778,7 +2653,7 @@
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2807,7 +2682,7 @@
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2836,7 +2711,7 @@
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2865,7 +2740,7 @@
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2894,7 +2769,7 @@
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2925,85 +2800,85 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="1">
-        <v>3</v>
+      <c r="C33" s="3">
+        <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="5">
-        <v>486</v>
+      <c r="G33" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="16">
+        <v>43.03</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="13">
-        <v>43831</v>
+        <v>19</v>
+      </c>
+      <c r="J33" s="19">
+        <v>44409</v>
       </c>
       <c r="K33" s="14">
-        <v>45657</v>
+        <v>45138</v>
       </c>
       <c r="L33" s="17">
-        <v>110000</v>
+        <v>7000000</v>
       </c>
       <c r="M33" s="17">
-        <v>75000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="3">
-        <v>3</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>35</v>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34" s="20">
-        <v>413.29</v>
+        <v>65</v>
+      </c>
+      <c r="H34" s="16">
+        <v>45.42</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="21">
-        <v>44562</v>
-      </c>
-      <c r="K34" s="21">
-        <v>45657</v>
-      </c>
-      <c r="L34" s="22">
-        <v>0</v>
-      </c>
-      <c r="M34" s="22">
-        <v>70000</v>
+      <c r="J34" s="13">
+        <v>43983</v>
+      </c>
+      <c r="K34" s="14">
+        <v>45138</v>
+      </c>
+      <c r="L34" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M34" s="17">
+        <v>50000</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>72</v>
@@ -3012,17 +2887,17 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H35" s="16">
-        <v>347.75</v>
+        <v>50</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>15</v>
@@ -3031,37 +2906,37 @@
         <v>43831</v>
       </c>
       <c r="K35" s="14">
-        <v>45107</v>
+        <v>45657</v>
       </c>
       <c r="L35" s="17">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="M35" s="17">
-        <v>80000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="1">
-        <v>2</v>
+      <c r="C36" s="3">
+        <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H36" s="16">
-        <v>278.39999999999998</v>
+        <v>66</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>15</v>
@@ -3070,16 +2945,16 @@
         <v>43831</v>
       </c>
       <c r="K36" s="14">
-        <v>45107</v>
+        <v>44926</v>
       </c>
       <c r="L36" s="17">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="M36" s="17">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3106,7 +2981,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3135,46 +3010,46 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H39" s="16">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J39" s="13">
-        <v>44200</v>
+        <v>44562</v>
       </c>
       <c r="K39" s="14">
-        <v>45107</v>
+        <v>44926</v>
       </c>
       <c r="L39" s="17">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="M39" s="17">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>72</v>
@@ -3183,35 +3058,35 @@
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="26">
-        <v>15.12</v>
+        <v>53</v>
+      </c>
+      <c r="H40" s="16">
+        <v>76</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J40" s="13">
-        <v>43834</v>
+        <v>44200</v>
       </c>
       <c r="K40" s="14">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="L40" s="17">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="M40" s="17">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3238,7 +3113,7 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3265,7 +3140,7 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3294,42 +3169,46 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" s="26">
-        <v>18.399999999999999</v>
+      <c r="G44" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="11">
+        <v>78.930000000000007</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" s="13"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="17">
+        <v>19</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" s="14">
+        <v>49309</v>
+      </c>
+      <c r="L44" s="15">
         <v>0</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>72</v>
@@ -3338,212 +3217,212 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="16">
-        <v>684</v>
+      <c r="G45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="11">
+        <v>82.48</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="13">
-        <v>44105</v>
+      <c r="J45" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="K45" s="14">
-        <v>45199</v>
-      </c>
-      <c r="L45" s="17">
-        <v>140000</v>
-      </c>
-      <c r="M45" s="17">
-        <v>80000</v>
+        <v>49309</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="3">
-        <v>2</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>102</v>
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="18" t="s">
-        <v>69</v>
+      <c r="G46" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H46" s="16">
-        <v>908.2</v>
+        <v>87.6</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="19">
-        <v>44759</v>
+      <c r="J46" s="23">
+        <v>44562</v>
       </c>
       <c r="K46" s="14">
-        <v>45854</v>
-      </c>
-      <c r="L46" s="17">
-        <v>90000</v>
-      </c>
-      <c r="M46" s="17">
-        <v>60000</v>
+        <v>45657</v>
+      </c>
+      <c r="L46" s="24">
+        <v>0</v>
+      </c>
+      <c r="M46" s="24">
+        <v>80000</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="27">
-        <v>211.2</v>
+        <v>65</v>
+      </c>
+      <c r="H47" s="16">
+        <v>96.83</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J47" s="13">
-        <v>44562</v>
+        <v>43983</v>
       </c>
       <c r="K47" s="14">
-        <v>44926</v>
+        <v>45138</v>
       </c>
       <c r="L47" s="17">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="M47" s="17">
-        <v>80000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="3">
-        <v>3</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>103</v>
+        <v>14</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="1"/>
       <c r="G48" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H48" s="27">
-        <v>34</v>
+        <v>67</v>
+      </c>
+      <c r="H48" s="16">
+        <v>182.89</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J48" s="23">
-        <v>44044</v>
+      <c r="J48" s="13">
+        <v>44562</v>
       </c>
       <c r="K48" s="14">
-        <v>45138</v>
-      </c>
-      <c r="L48" s="24">
-        <v>105000</v>
-      </c>
-      <c r="M48" s="24">
-        <v>55000</v>
+        <v>45657</v>
+      </c>
+      <c r="L48" s="17">
+        <v>0</v>
+      </c>
+      <c r="M48" s="17">
+        <v>40000</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="1">
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" s="16">
-        <v>87.6</v>
+        <v>58</v>
+      </c>
+      <c r="H49" s="27">
+        <v>211.2</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="13">
         <v>44562</v>
       </c>
       <c r="K49" s="14">
-        <v>45657</v>
-      </c>
-      <c r="L49" s="24">
-        <v>0</v>
-      </c>
-      <c r="M49" s="24">
+        <v>44926</v>
+      </c>
+      <c r="L49" s="17">
+        <v>20000</v>
+      </c>
+      <c r="M49" s="17">
         <v>80000</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="4" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H50" s="16">
-        <v>345.77</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>15</v>
@@ -3552,76 +3431,76 @@
         <v>43831</v>
       </c>
       <c r="K50" s="14">
-        <v>45657</v>
+        <v>45107</v>
       </c>
       <c r="L50" s="17">
         <v>100000</v>
       </c>
       <c r="M50" s="17">
-        <v>70000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="1">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="4" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="H51" s="16">
-        <v>26.32</v>
+        <v>345.77</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="23">
-        <v>44562</v>
+      <c r="J51" s="13">
+        <v>43831</v>
       </c>
       <c r="K51" s="14">
         <v>45657</v>
       </c>
       <c r="L51" s="17">
-        <v>20000</v>
-      </c>
-      <c r="M51" s="24">
-        <v>80000</v>
+        <v>100000</v>
+      </c>
+      <c r="M51" s="17">
+        <v>70000</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="1">
         <v>1</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>39</v>
+      <c r="D52" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H52" s="16">
-        <v>638.49</v>
+        <v>347.75</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>15</v>
@@ -3630,76 +3509,76 @@
         <v>43831</v>
       </c>
       <c r="K52" s="14">
-        <v>44926</v>
+        <v>45107</v>
       </c>
       <c r="L52" s="17">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="M52" s="17">
-        <v>70000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" s="16">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="H53" s="20">
+        <v>413.29</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="13">
-        <v>43831</v>
-      </c>
-      <c r="K53" s="14">
-        <v>44926</v>
-      </c>
-      <c r="L53" s="17">
-        <v>70000</v>
-      </c>
-      <c r="M53" s="17">
+      <c r="J53" s="21">
+        <v>44562</v>
+      </c>
+      <c r="K53" s="21">
+        <v>45657</v>
+      </c>
+      <c r="L53" s="22">
+        <v>0</v>
+      </c>
+      <c r="M53" s="22">
         <v>70000</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>26</v>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H54" s="16">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="H54" s="5">
+        <v>486</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>15</v>
@@ -3708,49 +3587,49 @@
         <v>43831</v>
       </c>
       <c r="K54" s="14">
-        <v>44926</v>
+        <v>45657</v>
       </c>
       <c r="L54" s="17">
-        <v>70000</v>
+        <v>110000</v>
       </c>
       <c r="M54" s="17">
-        <v>70000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="3">
         <v>1</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>27</v>
+      <c r="D55" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H55" s="16">
-        <v>11.28</v>
+        <v>638.49</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J55" s="13">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="K55" s="14">
         <v>44926</v>
       </c>
       <c r="L55" s="17">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="M55" s="17">
         <v>70000</v>
@@ -3758,7 +3637,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>72</v>
@@ -3767,35 +3646,35 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H56" s="16">
-        <v>16.86</v>
+        <v>684</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="13">
-        <v>44562</v>
+        <v>44105</v>
       </c>
       <c r="K56" s="14">
-        <v>44926</v>
+        <v>45199</v>
       </c>
       <c r="L56" s="17">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="M56" s="17">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3822,7 +3701,7 @@
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3849,7 +3728,7 @@
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3876,7 +3755,7 @@
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3903,7 +3782,7 @@
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3930,7 +3809,7 @@
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3957,7 +3836,7 @@
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3984,7 +3863,7 @@
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4013,44 +3892,44 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="3">
         <v>2</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>41</v>
+      <c r="D65" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="1"/>
-      <c r="G65" s="4" t="s">
-        <v>64</v>
+      <c r="G65" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="H65" s="16">
-        <v>35.380875202593195</v>
+        <v>908.2</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J65" s="19">
-        <v>44562</v>
+        <v>44759</v>
       </c>
       <c r="K65" s="14">
-        <v>44926</v>
+        <v>45854</v>
       </c>
       <c r="L65" s="17">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="M65" s="17">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4316,7 +4195,10 @@
       <c r="E74" s="3"/>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="5"/>
+      <c r="H74" s="5">
+        <f>SUBTOTAL(109,Table1[Area])</f>
+        <v>5499.8508752025928</v>
+      </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="6"/>
@@ -6199,121 +6081,121 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G197:G199 G151:G167 G190:G195 G172:G188 G1:G11 G13:G14 G18:G51 G56:G73 G75:G101">
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="60" priority="30">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G1)),(ISNUMBER(SEARCH("-&gt;",G1))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="31">
+    <cfRule type="expression" dxfId="59" priority="31">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G1)),NOT(ISNUMBER(SEARCH("-&gt;",G1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52 G16 G54">
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="58" priority="28">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G16)),(ISNUMBER(SEARCH("-&gt;",G16))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="29">
+    <cfRule type="expression" dxfId="57" priority="29">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G16)),NOT(ISNUMBER(SEARCH("-&gt;",G16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G196">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="56" priority="26">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G196)),(ISNUMBER(SEARCH("-&gt;",G196))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="55" priority="27">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G196)),NOT(ISNUMBER(SEARCH("-&gt;",G196))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="54" priority="24">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G50)),(ISNUMBER(SEARCH("-&gt;",G50))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="53" priority="25">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G50)),NOT(ISNUMBER(SEARCH("-&gt;",G50))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="52" priority="22">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G53)),(ISNUMBER(SEARCH("-&gt;",G53))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="51" priority="23">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G53)),NOT(ISNUMBER(SEARCH("-&gt;",G53))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G189">
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="50" priority="20">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G189)),(ISNUMBER(SEARCH("-&gt;",G189))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="49" priority="21">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G189)),NOT(ISNUMBER(SEARCH("-&gt;",G189))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G176:G179">
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="48" priority="18">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G176)),(ISNUMBER(SEARCH("-&gt;",G176))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="19">
+    <cfRule type="expression" dxfId="47" priority="19">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G176)),NOT(ISNUMBER(SEARCH("-&gt;",G176))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="46" priority="16">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G15)),(ISNUMBER(SEARCH("-&gt;",G15))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="45" priority="17">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G15)),NOT(ISNUMBER(SEARCH("-&gt;",G15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="44" priority="14">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G17)),(ISNUMBER(SEARCH("-&gt;",G17))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="43" priority="15">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G17)),NOT(ISNUMBER(SEARCH("-&gt;",G17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="42" priority="12">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G12)),(ISNUMBER(SEARCH("-&gt;",G12))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="41" priority="13">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G12)),NOT(ISNUMBER(SEARCH("-&gt;",G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="40" priority="10">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G55)),(ISNUMBER(SEARCH("-&gt;",G55))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="39" priority="11">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G55)),NOT(ISNUMBER(SEARCH("-&gt;",G55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="38" priority="6">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G95)),(ISNUMBER(SEARCH("-&gt;",G95))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="37" priority="7">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G95)),NOT(ISNUMBER(SEARCH("-&gt;",G95))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G98)),(ISNUMBER(SEARCH("-&gt;",G98))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G98)),NOT(ISNUMBER(SEARCH("-&gt;",G98))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="endsWith" dxfId="2" priority="3" operator="endsWith" text="vacant}">
+    <cfRule type="endsWith" dxfId="34" priority="3" operator="endsWith" text="vacant}">
       <formula>RIGHT(G1,LEN("vacant}"))="vacant}"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G73 G75:G199">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="vacant} -&gt;">
+    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="vacant} -&gt;">
       <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H199">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="32" priority="1">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
